--- a/addons/bi_generic_import/Sample XLS-CSV File/Sample XLS File/partner.xlsx
+++ b/addons/bi_generic_import/Sample XLS-CSV File/Sample XLS File/partner.xlsx
@@ -76,7 +76,7 @@
     <t>VENDOR PAYMENT TERMS</t>
   </si>
   <si>
-    <t>chirag</t>
+    <t>abc</t>
   </si>
   <si>
     <t>person</t>
@@ -100,7 +100,7 @@
     <t>India</t>
   </si>
   <si>
-    <t>abc.com</t>
+    <t>abcdd.com</t>
   </si>
   <si>
     <t>aaa@gmail.com</t>
@@ -115,7 +115,7 @@
     <t>15 Days</t>
   </si>
   <si>
-    <t>hiren</t>
+    <t>mno</t>
   </si>
   <si>
     <t>company</t>
@@ -137,7 +137,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -158,11 +158,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -219,11 +214,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -247,7 +242,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -345,7 +340,7 @@
         <v>25</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>128457</v>
+        <v>11111</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>26</v>
